--- a/paper/南核期刊.xlsx
+++ b/paper/南核期刊.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12800"/>
+    <workbookView windowWidth="11520" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="500">
   <si>
     <t>总分类</t>
   </si>
@@ -1185,15 +1185,6 @@
   </si>
   <si>
     <t>31-1626/P</t>
-  </si>
-  <si>
-    <t>08工学</t>
-  </si>
-  <si>
-    <t>09农学</t>
-  </si>
-  <si>
-    <t>10医学</t>
   </si>
   <si>
     <t>11管理学</t>
@@ -2190,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2207,12 +2198,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2740,20 +2725,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A178" sqref="$A178:$XFD180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.8846153846154" customWidth="1"/>
+    <col min="1" max="1" width="15.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="19.8846153846154" customWidth="1"/>
+    <col min="4" max="4" width="19.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5762,920 +5747,905 @@
         <v>385</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="6" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="7" t="s">
+      <c r="B178" s="4">
+        <v>11</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="6" t="s">
+      <c r="D178" s="4" t="s">
         <v>388</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B179" s="4">
+        <v>24</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B180" s="4">
+        <v>31</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B181" s="4">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B182" s="4">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B183" s="4">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B184" s="4">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B185" s="4">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B186" s="4">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B187" s="4">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B188" s="4">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B189" s="4">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B190" s="4">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B191" s="4">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B192" s="4">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B193" s="4">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B194" s="4">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B195" s="4">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B196" s="4">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B197" s="4">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B198" s="4">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="3" t="s">
-        <v>389</v>
+      <c r="A199" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="B199" s="4">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="3" t="s">
-        <v>389</v>
+      <c r="A200" s="5" t="s">
+        <v>431</v>
       </c>
       <c r="B200" s="4">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E200" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="5" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="3" t="s">
-        <v>389</v>
-      </c>
       <c r="B201" s="4">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B202" s="4">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B203" s="4">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B204" s="4">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B205" s="4">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B206" s="4">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B207" s="4">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B208" s="4">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B209" s="4">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B210" s="4">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B211" s="4">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B212" s="4">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="5" t="s">
-        <v>434</v>
+      <c r="A213" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B213" s="4">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="5" t="s">
-        <v>434</v>
+      <c r="A214" s="3" t="s">
+        <v>461</v>
       </c>
       <c r="B214" s="4">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E214" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="B215" s="4">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B216" s="4">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B217" s="4">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B218" s="4">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B219" s="4">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B220" s="4">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B221" s="4">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B222" s="4">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B223" s="4">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B224" s="4">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B225" s="4">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B226" s="4">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B227" s="4">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B228" s="4">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B229" s="4">
-        <v>86</v>
+        <v>196</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B230" s="4">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B231" s="4">
-        <v>186</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B232" s="4">
-        <v>196</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D232" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B233" s="4">
-        <v>213</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
